--- a/06_Documents/ParameterExchangeProtocol_Over_Modbus.xlsx
+++ b/06_Documents/ParameterExchangeProtocol_Over_Modbus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_github\fw_BasicAFE\02_Libraries\LIB_CSMON\06_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA67162-0FBE-4674-AEF5-37E9CC48D324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CE7AB8-850F-4712-BD41-2FE2D5E0F736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="731" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,7 +1377,7 @@
     <t>PAR_STORE Parameter ist für Speicherung im EEPROM vorgesehen</t>
   </si>
   <si>
-    <t>to use for isChar / isString (decided 2023 02 02)</t>
+    <t>to use for isNumberArray (decided 2023 02 02) 0-String/Array of characters ; 1-Array of numbers</t>
   </si>
 </sst>
 </file>
@@ -1769,6 +1769,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1808,11 +1809,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1823,11 +1824,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1837,6 +1838,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1850,19 +1863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2292,7 +2292,7 @@
       <c r="I8" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="66" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       <c r="I9" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="66"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10">
@@ -2324,7 +2324,7 @@
       <c r="I10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="66"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11">
@@ -2339,7 +2339,7 @@
       <c r="I11" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12">
@@ -2354,7 +2354,7 @@
       <c r="I12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13">
@@ -2369,7 +2369,7 @@
       <c r="I13" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14">
@@ -2384,7 +2384,7 @@
       <c r="I14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="66"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15">
@@ -2399,7 +2399,7 @@
       <c r="I15" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16">
@@ -2414,7 +2414,7 @@
       <c r="I16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="66"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17">
@@ -2429,7 +2429,7 @@
       <c r="I17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18">
@@ -2444,7 +2444,7 @@
       <c r="I18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19">
@@ -2459,7 +2459,7 @@
       <c r="I19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20">
@@ -2474,7 +2474,7 @@
       <c r="I20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="66"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21">
@@ -2489,7 +2489,7 @@
       <c r="I21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F22">
@@ -2504,7 +2504,7 @@
       <c r="I22" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="66"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23">
@@ -2519,7 +2519,7 @@
       <c r="I23" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J23" s="67"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.3">
       <c r="G25" s="1" t="s">
@@ -2769,10 +2769,10 @@
       <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="K8" s="76" t="str">
+      <c r="K8" s="77" t="str">
         <f>DEC2HEX((G8-5)/2)</f>
         <v>0</v>
       </c>
@@ -2799,8 +2799,8 @@
       <c r="I9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="77"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2824,8 +2824,8 @@
       <c r="I10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="76" t="str">
+      <c r="J10" s="87"/>
+      <c r="K10" s="77" t="str">
         <f t="shared" ref="K10" si="0">DEC2HEX((G10-5)/2)</f>
         <v>1</v>
       </c>
@@ -2852,8 +2852,8 @@
       <c r="I11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="77"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2880,7 +2880,7 @@
       <c r="J12" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="K12" s="76" t="str">
+      <c r="K12" s="77" t="str">
         <f t="shared" ref="K12" si="1">DEC2HEX((G12-5)/2)</f>
         <v>2</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="J13" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="K13" s="77"/>
+      <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14">
@@ -2913,7 +2913,7 @@
       <c r="J14" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="K14" s="76" t="str">
+      <c r="K14" s="77" t="str">
         <f t="shared" ref="K14" si="2">DEC2HEX((G14-5)/2)</f>
         <v>3</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="J15" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="K15" s="77"/>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16">
@@ -2946,7 +2946,7 @@
       <c r="J16" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="K16" s="76" t="str">
+      <c r="K16" s="77" t="str">
         <f t="shared" ref="K16" si="3">DEC2HEX((G16-5)/2)</f>
         <v>4</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="J17" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="K17" s="77"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G18">
@@ -2979,7 +2979,7 @@
       <c r="J18" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="K18" s="76" t="str">
+      <c r="K18" s="77" t="str">
         <f t="shared" ref="K18" si="4">DEC2HEX((G18-5)/2)</f>
         <v>5</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="J19" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="78"/>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G20">
@@ -3012,7 +3012,7 @@
       <c r="J20" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K20" s="76" t="str">
+      <c r="K20" s="77" t="str">
         <f t="shared" ref="K20" si="5">DEC2HEX((G20-5)/2)</f>
         <v>6</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="J21" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G22">
@@ -3045,7 +3045,7 @@
       <c r="J22" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K22" s="76" t="str">
+      <c r="K22" s="77" t="str">
         <f t="shared" ref="K22" si="6">DEC2HEX((G22-5)/2)</f>
         <v>7</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="J23" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K23" s="77"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="24" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G24">
@@ -3078,7 +3078,7 @@
       <c r="J24" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K24" s="76" t="str">
+      <c r="K24" s="77" t="str">
         <f t="shared" ref="K24" si="7">DEC2HEX((G24-5)/2)</f>
         <v>8</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="J25" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K25" s="77"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G26">
@@ -3111,7 +3111,7 @@
       <c r="J26" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="76" t="str">
+      <c r="K26" s="77" t="str">
         <f t="shared" ref="K26" si="8">DEC2HEX((G26-5)/2)</f>
         <v>9</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="J27" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="77"/>
+      <c r="K27" s="78"/>
     </row>
     <row r="28" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G28">
@@ -3144,7 +3144,7 @@
       <c r="J28" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K28" s="76" t="str">
+      <c r="K28" s="77" t="str">
         <f t="shared" ref="K28" si="9">DEC2HEX((G28-5)/2)</f>
         <v>A</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="J29" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K29" s="77"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G30">
@@ -3177,7 +3177,7 @@
       <c r="J30" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K30" s="76" t="str">
+      <c r="K30" s="77" t="str">
         <f t="shared" ref="K30" si="10">DEC2HEX((G30-5)/2)</f>
         <v>B</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="J31" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K31" s="77"/>
+      <c r="K31" s="78"/>
     </row>
     <row r="32" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G32">
@@ -3210,7 +3210,7 @@
       <c r="J32" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="76" t="str">
+      <c r="K32" s="77" t="str">
         <f t="shared" ref="K32" si="11">DEC2HEX((G32-5)/2)</f>
         <v>C</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="J33" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K33" s="77"/>
+      <c r="K33" s="78"/>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G34">
@@ -3243,7 +3243,7 @@
       <c r="J34" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K34" s="76" t="str">
+      <c r="K34" s="77" t="str">
         <f t="shared" ref="K34" si="12">DEC2HEX((G34-5)/2)</f>
         <v>D</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="J35" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K35" s="77"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G36">
@@ -3276,7 +3276,7 @@
       <c r="J36" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K36" s="76" t="str">
+      <c r="K36" s="77" t="str">
         <f t="shared" ref="K36" si="13">DEC2HEX((G36-5)/2)</f>
         <v>E</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J37" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K37" s="77"/>
+      <c r="K37" s="78"/>
     </row>
     <row r="38" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G38">
@@ -3309,7 +3309,7 @@
       <c r="J38" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K38" s="76" t="str">
+      <c r="K38" s="77" t="str">
         <f t="shared" ref="K38" si="14">DEC2HEX((G38-5)/2)</f>
         <v>F</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="J39" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K39" s="77"/>
+      <c r="K39" s="78"/>
     </row>
     <row r="40" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G40">
@@ -3342,7 +3342,7 @@
       <c r="J40" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K40" s="76" t="str">
+      <c r="K40" s="77" t="str">
         <f t="shared" ref="K40" si="15">DEC2HEX((G40-5)/2)</f>
         <v>10</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="J41" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K41" s="77"/>
+      <c r="K41" s="78"/>
     </row>
     <row r="42" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G42">
@@ -3375,7 +3375,7 @@
       <c r="J42" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K42" s="76" t="str">
+      <c r="K42" s="77" t="str">
         <f t="shared" ref="K42" si="16">DEC2HEX((G42-5)/2)</f>
         <v>11</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="J43" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K43" s="77"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G44">
@@ -3408,7 +3408,7 @@
       <c r="J44" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K44" s="76" t="str">
+      <c r="K44" s="77" t="str">
         <f t="shared" ref="K44" si="17">DEC2HEX((G44-5)/2)</f>
         <v>12</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="J45" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K45" s="77"/>
+      <c r="K45" s="78"/>
     </row>
     <row r="46" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G46">
@@ -3441,7 +3441,7 @@
       <c r="J46" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K46" s="76" t="str">
+      <c r="K46" s="77" t="str">
         <f t="shared" ref="K46" si="18">DEC2HEX((G46-5)/2)</f>
         <v>13</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J47" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K47" s="77"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G48">
@@ -3474,7 +3474,7 @@
       <c r="J48" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K48" s="76" t="str">
+      <c r="K48" s="77" t="str">
         <f t="shared" ref="K48" si="19">DEC2HEX((G48-5)/2)</f>
         <v>14</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="J49" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K49" s="77"/>
+      <c r="K49" s="78"/>
     </row>
     <row r="50" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G50">
@@ -3507,7 +3507,7 @@
       <c r="J50" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K50" s="76" t="str">
+      <c r="K50" s="77" t="str">
         <f t="shared" ref="K50" si="20">DEC2HEX((G50-5)/2)</f>
         <v>15</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="J51" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K51" s="77"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G52">
@@ -3540,7 +3540,7 @@
       <c r="J52" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K52" s="76" t="str">
+      <c r="K52" s="77" t="str">
         <f t="shared" ref="K52" si="21">DEC2HEX((G52-5)/2)</f>
         <v>16</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="J53" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K53" s="77"/>
+      <c r="K53" s="78"/>
     </row>
     <row r="54" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G54">
@@ -3573,7 +3573,7 @@
       <c r="J54" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K54" s="76" t="str">
+      <c r="K54" s="77" t="str">
         <f t="shared" ref="K54" si="22">DEC2HEX((G54-5)/2)</f>
         <v>17</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="J55" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K55" s="77"/>
+      <c r="K55" s="78"/>
     </row>
     <row r="56" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G56">
@@ -3606,7 +3606,7 @@
       <c r="J56" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K56" s="76" t="str">
+      <c r="K56" s="77" t="str">
         <f t="shared" ref="K56" si="23">DEC2HEX((G56-5)/2)</f>
         <v>18</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="J57" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K57" s="77"/>
+      <c r="K57" s="78"/>
     </row>
     <row r="58" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G58">
@@ -3639,7 +3639,7 @@
       <c r="J58" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K58" s="76" t="str">
+      <c r="K58" s="77" t="str">
         <f t="shared" ref="K58" si="24">DEC2HEX((G58-5)/2)</f>
         <v>19</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="J59" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K59" s="77"/>
+      <c r="K59" s="78"/>
     </row>
     <row r="60" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G60">
@@ -3672,7 +3672,7 @@
       <c r="J60" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K60" s="76" t="str">
+      <c r="K60" s="77" t="str">
         <f t="shared" ref="K60" si="25">DEC2HEX((G60-5)/2)</f>
         <v>1A</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="J61" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K61" s="77"/>
+      <c r="K61" s="78"/>
     </row>
     <row r="62" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G62">
@@ -3705,7 +3705,7 @@
       <c r="J62" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K62" s="76" t="str">
+      <c r="K62" s="77" t="str">
         <f t="shared" ref="K62" si="26">DEC2HEX((G62-5)/2)</f>
         <v>1B</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="J63" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K63" s="77"/>
+      <c r="K63" s="78"/>
     </row>
     <row r="64" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G64">
@@ -3738,7 +3738,7 @@
       <c r="J64" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K64" s="76" t="str">
+      <c r="K64" s="77" t="str">
         <f t="shared" ref="K64" si="27">DEC2HEX((G64-5)/2)</f>
         <v>1C</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J65" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K65" s="77"/>
+      <c r="K65" s="78"/>
     </row>
     <row r="66" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G66">
@@ -3771,7 +3771,7 @@
       <c r="J66" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K66" s="76" t="str">
+      <c r="K66" s="77" t="str">
         <f t="shared" ref="K66" si="28">DEC2HEX((G66-5)/2)</f>
         <v>1D</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="J67" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K67" s="77"/>
+      <c r="K67" s="78"/>
     </row>
     <row r="68" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G68">
@@ -3804,7 +3804,7 @@
       <c r="J68" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K68" s="76" t="str">
+      <c r="K68" s="77" t="str">
         <f t="shared" ref="K68" si="29">DEC2HEX((G68-5)/2)</f>
         <v>1E</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="J69" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K69" s="77"/>
+      <c r="K69" s="78"/>
     </row>
     <row r="70" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G70">
@@ -3837,7 +3837,7 @@
       <c r="J70" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K70" s="76" t="str">
+      <c r="K70" s="77" t="str">
         <f t="shared" ref="K70" si="30">DEC2HEX((G70-5)/2)</f>
         <v>1F</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="J71" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K71" s="77"/>
+      <c r="K71" s="78"/>
     </row>
     <row r="72" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G72">
@@ -3870,7 +3870,7 @@
       <c r="J72" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K72" s="76" t="str">
+      <c r="K72" s="77" t="str">
         <f t="shared" ref="K72" si="31">DEC2HEX((G72-5)/2)</f>
         <v>20</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="J73" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K73" s="77"/>
+      <c r="K73" s="78"/>
     </row>
     <row r="74" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G74">
@@ -3903,7 +3903,7 @@
       <c r="J74" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K74" s="76" t="str">
+      <c r="K74" s="77" t="str">
         <f t="shared" ref="K74" si="32">DEC2HEX((G74-5)/2)</f>
         <v>21</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="J75" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K75" s="77"/>
+      <c r="K75" s="78"/>
     </row>
     <row r="76" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G76">
@@ -3936,7 +3936,7 @@
       <c r="J76" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K76" s="76" t="str">
+      <c r="K76" s="77" t="str">
         <f t="shared" ref="K76" si="33">DEC2HEX((G76-5)/2)</f>
         <v>22</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="J77" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K77" s="77"/>
+      <c r="K77" s="78"/>
     </row>
     <row r="78" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G78">
@@ -3969,7 +3969,7 @@
       <c r="J78" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K78" s="76" t="str">
+      <c r="K78" s="77" t="str">
         <f t="shared" ref="K78" si="34">DEC2HEX((G78-5)/2)</f>
         <v>23</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="J79" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K79" s="77"/>
+      <c r="K79" s="78"/>
     </row>
     <row r="80" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G80">
@@ -4002,7 +4002,7 @@
       <c r="J80" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K80" s="76" t="str">
+      <c r="K80" s="77" t="str">
         <f t="shared" ref="K80" si="35">DEC2HEX((G80-5)/2)</f>
         <v>24</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="J81" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K81" s="77"/>
+      <c r="K81" s="78"/>
     </row>
     <row r="82" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G82">
@@ -4035,7 +4035,7 @@
       <c r="J82" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K82" s="76" t="str">
+      <c r="K82" s="77" t="str">
         <f t="shared" ref="K82" si="36">DEC2HEX((G82-5)/2)</f>
         <v>25</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="J83" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K83" s="77"/>
+      <c r="K83" s="78"/>
     </row>
     <row r="84" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G84">
@@ -4068,7 +4068,7 @@
       <c r="J84" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K84" s="76" t="str">
+      <c r="K84" s="77" t="str">
         <f t="shared" ref="K84" si="37">DEC2HEX((G84-5)/2)</f>
         <v>26</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="J85" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K85" s="77"/>
+      <c r="K85" s="78"/>
     </row>
     <row r="86" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G86">
@@ -4101,7 +4101,7 @@
       <c r="J86" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K86" s="76" t="str">
+      <c r="K86" s="77" t="str">
         <f t="shared" ref="K86" si="38">DEC2HEX((G86-5)/2)</f>
         <v>27</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="J87" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K87" s="77"/>
+      <c r="K87" s="78"/>
     </row>
     <row r="88" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G88">
@@ -4134,7 +4134,7 @@
       <c r="J88" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K88" s="76" t="str">
+      <c r="K88" s="77" t="str">
         <f t="shared" ref="K88" si="39">DEC2HEX((G88-5)/2)</f>
         <v>28</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="J89" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K89" s="77"/>
+      <c r="K89" s="78"/>
     </row>
     <row r="90" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G90">
@@ -4167,7 +4167,7 @@
       <c r="J90" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K90" s="76" t="str">
+      <c r="K90" s="77" t="str">
         <f t="shared" ref="K90" si="40">DEC2HEX((G90-5)/2)</f>
         <v>29</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="J91" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K91" s="77"/>
+      <c r="K91" s="78"/>
     </row>
     <row r="92" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G92">
@@ -4200,7 +4200,7 @@
       <c r="J92" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K92" s="76" t="str">
+      <c r="K92" s="77" t="str">
         <f t="shared" ref="K92" si="41">DEC2HEX((G92-5)/2)</f>
         <v>2A</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="J93" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K93" s="77"/>
+      <c r="K93" s="78"/>
     </row>
     <row r="94" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G94">
@@ -4233,7 +4233,7 @@
       <c r="J94" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K94" s="76" t="str">
+      <c r="K94" s="77" t="str">
         <f t="shared" ref="K94" si="42">DEC2HEX((G94-5)/2)</f>
         <v>2B</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="J95" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K95" s="77"/>
+      <c r="K95" s="78"/>
     </row>
     <row r="96" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G96">
@@ -4266,7 +4266,7 @@
       <c r="J96" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K96" s="76" t="str">
+      <c r="K96" s="77" t="str">
         <f t="shared" ref="K96" si="43">DEC2HEX((G96-5)/2)</f>
         <v>2C</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="J97" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K97" s="77"/>
+      <c r="K97" s="78"/>
     </row>
     <row r="98" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G98">
@@ -4299,7 +4299,7 @@
       <c r="J98" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K98" s="76" t="str">
+      <c r="K98" s="77" t="str">
         <f t="shared" ref="K98" si="44">DEC2HEX((G98-5)/2)</f>
         <v>2D</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="J99" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K99" s="77"/>
+      <c r="K99" s="78"/>
     </row>
     <row r="100" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G100">
@@ -4332,7 +4332,7 @@
       <c r="J100" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K100" s="76" t="str">
+      <c r="K100" s="77" t="str">
         <f t="shared" ref="K100" si="45">DEC2HEX((G100-5)/2)</f>
         <v>2E</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="J101" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K101" s="77"/>
+      <c r="K101" s="78"/>
     </row>
     <row r="102" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G102">
@@ -4365,7 +4365,7 @@
       <c r="J102" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K102" s="76" t="str">
+      <c r="K102" s="77" t="str">
         <f t="shared" ref="K102" si="46">DEC2HEX((G102-5)/2)</f>
         <v>2F</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="J103" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K103" s="77"/>
+      <c r="K103" s="78"/>
     </row>
     <row r="104" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G104">
@@ -4398,7 +4398,7 @@
       <c r="J104" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K104" s="76" t="str">
+      <c r="K104" s="77" t="str">
         <f t="shared" ref="K104" si="47">DEC2HEX((G104-5)/2)</f>
         <v>30</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="J105" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K105" s="77"/>
+      <c r="K105" s="78"/>
     </row>
     <row r="106" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G106">
@@ -4431,7 +4431,7 @@
       <c r="J106" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K106" s="76" t="str">
+      <c r="K106" s="77" t="str">
         <f t="shared" ref="K106" si="48">DEC2HEX((G106-5)/2)</f>
         <v>31</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="J107" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K107" s="77"/>
+      <c r="K107" s="78"/>
     </row>
     <row r="108" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G108">
@@ -4464,7 +4464,7 @@
       <c r="J108" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K108" s="76" t="str">
+      <c r="K108" s="77" t="str">
         <f t="shared" ref="K108" si="49">DEC2HEX((G108-5)/2)</f>
         <v>32</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="J109" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K109" s="77"/>
+      <c r="K109" s="78"/>
     </row>
     <row r="110" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G110">
@@ -4497,7 +4497,7 @@
       <c r="J110" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K110" s="76" t="str">
+      <c r="K110" s="77" t="str">
         <f t="shared" ref="K110" si="50">DEC2HEX((G110-5)/2)</f>
         <v>33</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="J111" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K111" s="77"/>
+      <c r="K111" s="78"/>
     </row>
     <row r="112" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G112">
@@ -4530,7 +4530,7 @@
       <c r="J112" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K112" s="76" t="str">
+      <c r="K112" s="77" t="str">
         <f t="shared" ref="K112" si="51">DEC2HEX((G112-5)/2)</f>
         <v>34</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="J113" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K113" s="77"/>
+      <c r="K113" s="78"/>
     </row>
     <row r="114" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G114">
@@ -4563,7 +4563,7 @@
       <c r="J114" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K114" s="76" t="str">
+      <c r="K114" s="77" t="str">
         <f t="shared" ref="K114" si="52">DEC2HEX((G114-5)/2)</f>
         <v>35</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="J115" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K115" s="77"/>
+      <c r="K115" s="78"/>
     </row>
     <row r="116" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G116">
@@ -4596,7 +4596,7 @@
       <c r="J116" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K116" s="76" t="str">
+      <c r="K116" s="77" t="str">
         <f t="shared" ref="K116" si="53">DEC2HEX((G116-5)/2)</f>
         <v>36</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="J117" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K117" s="77"/>
+      <c r="K117" s="78"/>
     </row>
     <row r="118" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G118">
@@ -4629,7 +4629,7 @@
       <c r="J118" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K118" s="76" t="str">
+      <c r="K118" s="77" t="str">
         <f t="shared" ref="K118" si="54">DEC2HEX((G118-5)/2)</f>
         <v>37</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="J119" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K119" s="77"/>
+      <c r="K119" s="78"/>
     </row>
     <row r="120" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G120">
@@ -4662,7 +4662,7 @@
       <c r="J120" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K120" s="76" t="str">
+      <c r="K120" s="77" t="str">
         <f t="shared" ref="K120" si="55">DEC2HEX((G120-5)/2)</f>
         <v>38</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="J121" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K121" s="77"/>
+      <c r="K121" s="78"/>
     </row>
     <row r="122" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G122">
@@ -4695,7 +4695,7 @@
       <c r="J122" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K122" s="76" t="str">
+      <c r="K122" s="77" t="str">
         <f t="shared" ref="K122" si="56">DEC2HEX((G122-5)/2)</f>
         <v>39</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="J123" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K123" s="77"/>
+      <c r="K123" s="78"/>
     </row>
     <row r="124" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G124">
@@ -4728,7 +4728,7 @@
       <c r="J124" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K124" s="76" t="str">
+      <c r="K124" s="77" t="str">
         <f t="shared" ref="K124" si="57">DEC2HEX((G124-5)/2)</f>
         <v>3A</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="J125" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K125" s="77"/>
+      <c r="K125" s="78"/>
     </row>
     <row r="126" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G126">
@@ -4761,7 +4761,7 @@
       <c r="J126" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K126" s="76" t="str">
+      <c r="K126" s="77" t="str">
         <f t="shared" ref="K126" si="58">DEC2HEX((G126-5)/2)</f>
         <v>3B</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="J127" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K127" s="77"/>
+      <c r="K127" s="78"/>
     </row>
     <row r="128" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G128">
@@ -4794,7 +4794,7 @@
       <c r="J128" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K128" s="76" t="str">
+      <c r="K128" s="77" t="str">
         <f t="shared" ref="K128" si="59">DEC2HEX((G128-5)/2)</f>
         <v>3C</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="J129" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K129" s="77"/>
+      <c r="K129" s="78"/>
     </row>
     <row r="130" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G130">
@@ -4827,7 +4827,7 @@
       <c r="J130" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K130" s="76" t="str">
+      <c r="K130" s="77" t="str">
         <f t="shared" ref="K130" si="60">DEC2HEX((G130-5)/2)</f>
         <v>3D</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="J131" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K131" s="77"/>
+      <c r="K131" s="78"/>
     </row>
     <row r="132" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G132">
@@ -4860,7 +4860,7 @@
       <c r="J132" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K132" s="76" t="str">
+      <c r="K132" s="77" t="str">
         <f t="shared" ref="K132" si="61">DEC2HEX((G132-5)/2)</f>
         <v>3E</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="J133" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K133" s="77"/>
+      <c r="K133" s="78"/>
     </row>
     <row r="134" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G134">
@@ -4893,7 +4893,7 @@
       <c r="J134" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K134" s="76" t="str">
+      <c r="K134" s="77" t="str">
         <f t="shared" ref="K134" si="62">DEC2HEX((G134-5)/2)</f>
         <v>3F</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="J135" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K135" s="77"/>
+      <c r="K135" s="78"/>
     </row>
     <row r="136" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G136">
@@ -4926,7 +4926,7 @@
       <c r="J136" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K136" s="76" t="str">
+      <c r="K136" s="77" t="str">
         <f t="shared" ref="K136" si="63">DEC2HEX((G136-5)/2)</f>
         <v>40</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J137" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K137" s="77"/>
+      <c r="K137" s="78"/>
     </row>
     <row r="138" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G138">
@@ -4959,7 +4959,7 @@
       <c r="J138" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K138" s="76" t="str">
+      <c r="K138" s="77" t="str">
         <f t="shared" ref="K138" si="64">DEC2HEX((G138-5)/2)</f>
         <v>41</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="J139" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K139" s="77"/>
+      <c r="K139" s="78"/>
     </row>
     <row r="140" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G140">
@@ -4992,7 +4992,7 @@
       <c r="J140" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K140" s="76" t="str">
+      <c r="K140" s="77" t="str">
         <f t="shared" ref="K140" si="65">DEC2HEX((G140-5)/2)</f>
         <v>42</v>
       </c>
@@ -5010,7 +5010,7 @@
       <c r="J141" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K141" s="77"/>
+      <c r="K141" s="78"/>
     </row>
     <row r="142" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G142">
@@ -5025,7 +5025,7 @@
       <c r="J142" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K142" s="76" t="str">
+      <c r="K142" s="77" t="str">
         <f t="shared" ref="K142" si="66">DEC2HEX((G142-5)/2)</f>
         <v>43</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="J143" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K143" s="77"/>
+      <c r="K143" s="78"/>
     </row>
     <row r="144" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G144">
@@ -5058,7 +5058,7 @@
       <c r="J144" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K144" s="76" t="str">
+      <c r="K144" s="77" t="str">
         <f t="shared" ref="K144" si="67">DEC2HEX((G144-5)/2)</f>
         <v>44</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="J145" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K145" s="77"/>
+      <c r="K145" s="78"/>
     </row>
     <row r="146" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G146">
@@ -5091,7 +5091,7 @@
       <c r="J146" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K146" s="76" t="str">
+      <c r="K146" s="77" t="str">
         <f t="shared" ref="K146" si="68">DEC2HEX((G146-5)/2)</f>
         <v>45</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="J147" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K147" s="77"/>
+      <c r="K147" s="78"/>
     </row>
     <row r="148" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G148">
@@ -5124,7 +5124,7 @@
       <c r="J148" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K148" s="76" t="str">
+      <c r="K148" s="77" t="str">
         <f t="shared" ref="K148" si="69">DEC2HEX((G148-5)/2)</f>
         <v>46</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="J149" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K149" s="77"/>
+      <c r="K149" s="78"/>
     </row>
     <row r="150" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G150">
@@ -5157,7 +5157,7 @@
       <c r="J150" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K150" s="76" t="str">
+      <c r="K150" s="77" t="str">
         <f t="shared" ref="K150" si="70">DEC2HEX((G150-5)/2)</f>
         <v>47</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="J151" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K151" s="77"/>
+      <c r="K151" s="78"/>
     </row>
     <row r="152" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G152">
@@ -5190,7 +5190,7 @@
       <c r="J152" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K152" s="76" t="str">
+      <c r="K152" s="77" t="str">
         <f t="shared" ref="K152" si="71">DEC2HEX((G152-5)/2)</f>
         <v>48</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="J153" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K153" s="77"/>
+      <c r="K153" s="78"/>
     </row>
     <row r="154" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G154">
@@ -5223,7 +5223,7 @@
       <c r="J154" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K154" s="76" t="str">
+      <c r="K154" s="77" t="str">
         <f t="shared" ref="K154" si="72">DEC2HEX((G154-5)/2)</f>
         <v>49</v>
       </c>
@@ -5241,7 +5241,7 @@
       <c r="J155" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K155" s="77"/>
+      <c r="K155" s="78"/>
     </row>
     <row r="156" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G156">
@@ -5256,7 +5256,7 @@
       <c r="J156" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K156" s="76" t="str">
+      <c r="K156" s="77" t="str">
         <f t="shared" ref="K156" si="73">DEC2HEX((G156-5)/2)</f>
         <v>4A</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="J157" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K157" s="77"/>
+      <c r="K157" s="78"/>
     </row>
     <row r="158" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G158">
@@ -5289,7 +5289,7 @@
       <c r="J158" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K158" s="76" t="str">
+      <c r="K158" s="77" t="str">
         <f t="shared" ref="K158" si="74">DEC2HEX((G158-5)/2)</f>
         <v>4B</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="J159" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K159" s="77"/>
+      <c r="K159" s="78"/>
     </row>
     <row r="160" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G160">
@@ -5322,7 +5322,7 @@
       <c r="J160" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K160" s="76" t="str">
+      <c r="K160" s="77" t="str">
         <f t="shared" ref="K160" si="75">DEC2HEX((G160-5)/2)</f>
         <v>4C</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="J161" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K161" s="77"/>
+      <c r="K161" s="78"/>
     </row>
     <row r="162" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G162">
@@ -5355,7 +5355,7 @@
       <c r="J162" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K162" s="76" t="str">
+      <c r="K162" s="77" t="str">
         <f t="shared" ref="K162" si="76">DEC2HEX((G162-5)/2)</f>
         <v>4D</v>
       </c>
@@ -5373,7 +5373,7 @@
       <c r="J163" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K163" s="77"/>
+      <c r="K163" s="78"/>
     </row>
     <row r="164" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G164">
@@ -5388,7 +5388,7 @@
       <c r="J164" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K164" s="76" t="str">
+      <c r="K164" s="77" t="str">
         <f t="shared" ref="K164" si="77">DEC2HEX((G164-5)/2)</f>
         <v>4E</v>
       </c>
@@ -5406,7 +5406,7 @@
       <c r="J165" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K165" s="77"/>
+      <c r="K165" s="78"/>
     </row>
     <row r="166" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G166">
@@ -5421,7 +5421,7 @@
       <c r="J166" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K166" s="76" t="str">
+      <c r="K166" s="77" t="str">
         <f t="shared" ref="K166" si="78">DEC2HEX((G166-5)/2)</f>
         <v>4F</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="J167" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K167" s="77"/>
+      <c r="K167" s="78"/>
     </row>
     <row r="168" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G168">
@@ -5454,7 +5454,7 @@
       <c r="J168" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K168" s="76" t="str">
+      <c r="K168" s="77" t="str">
         <f t="shared" ref="K168" si="79">DEC2HEX((G168-5)/2)</f>
         <v>50</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="J169" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K169" s="77"/>
+      <c r="K169" s="78"/>
     </row>
     <row r="170" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G170">
@@ -5487,7 +5487,7 @@
       <c r="J170" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K170" s="76" t="str">
+      <c r="K170" s="77" t="str">
         <f t="shared" ref="K170" si="80">DEC2HEX((G170-5)/2)</f>
         <v>51</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="J171" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K171" s="77"/>
+      <c r="K171" s="78"/>
     </row>
     <row r="172" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G172">
@@ -5520,7 +5520,7 @@
       <c r="J172" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K172" s="76" t="str">
+      <c r="K172" s="77" t="str">
         <f t="shared" ref="K172" si="81">DEC2HEX((G172-5)/2)</f>
         <v>52</v>
       </c>
@@ -5538,7 +5538,7 @@
       <c r="J173" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K173" s="77"/>
+      <c r="K173" s="78"/>
     </row>
     <row r="174" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G174">
@@ -5553,7 +5553,7 @@
       <c r="J174" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K174" s="76" t="str">
+      <c r="K174" s="77" t="str">
         <f t="shared" ref="K174" si="82">DEC2HEX((G174-5)/2)</f>
         <v>53</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="J175" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K175" s="77"/>
+      <c r="K175" s="78"/>
     </row>
     <row r="176" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G176">
@@ -5586,7 +5586,7 @@
       <c r="J176" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K176" s="76" t="str">
+      <c r="K176" s="77" t="str">
         <f t="shared" ref="K176" si="83">DEC2HEX((G176-5)/2)</f>
         <v>54</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="J177" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K177" s="77"/>
+      <c r="K177" s="78"/>
     </row>
     <row r="178" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G178">
@@ -5619,7 +5619,7 @@
       <c r="J178" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K178" s="76" t="str">
+      <c r="K178" s="77" t="str">
         <f t="shared" ref="K178" si="84">DEC2HEX((G178-5)/2)</f>
         <v>55</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="J179" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K179" s="77"/>
+      <c r="K179" s="78"/>
     </row>
     <row r="180" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G180">
@@ -5652,7 +5652,7 @@
       <c r="J180" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K180" s="76" t="str">
+      <c r="K180" s="77" t="str">
         <f t="shared" ref="K180" si="85">DEC2HEX((G180-5)/2)</f>
         <v>56</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="J181" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K181" s="77"/>
+      <c r="K181" s="78"/>
     </row>
     <row r="182" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G182">
@@ -5685,7 +5685,7 @@
       <c r="J182" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K182" s="76" t="str">
+      <c r="K182" s="77" t="str">
         <f t="shared" ref="K182" si="86">DEC2HEX((G182-5)/2)</f>
         <v>57</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="J183" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K183" s="77"/>
+      <c r="K183" s="78"/>
     </row>
     <row r="184" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G184">
@@ -5718,7 +5718,7 @@
       <c r="J184" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K184" s="76" t="str">
+      <c r="K184" s="77" t="str">
         <f t="shared" ref="K184" si="87">DEC2HEX((G184-5)/2)</f>
         <v>58</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="J185" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K185" s="77"/>
+      <c r="K185" s="78"/>
     </row>
     <row r="186" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G186">
@@ -5751,7 +5751,7 @@
       <c r="J186" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K186" s="76" t="str">
+      <c r="K186" s="77" t="str">
         <f t="shared" ref="K186" si="88">DEC2HEX((G186-5)/2)</f>
         <v>59</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="J187" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K187" s="77"/>
+      <c r="K187" s="78"/>
     </row>
     <row r="188" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G188">
@@ -5784,7 +5784,7 @@
       <c r="J188" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K188" s="76" t="str">
+      <c r="K188" s="77" t="str">
         <f t="shared" ref="K188" si="89">DEC2HEX((G188-5)/2)</f>
         <v>5A</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="J189" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K189" s="77"/>
+      <c r="K189" s="78"/>
     </row>
     <row r="190" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G190">
@@ -5817,7 +5817,7 @@
       <c r="J190" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K190" s="76" t="str">
+      <c r="K190" s="77" t="str">
         <f t="shared" ref="K190" si="90">DEC2HEX((G190-5)/2)</f>
         <v>5B</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="J191" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K191" s="77"/>
+      <c r="K191" s="78"/>
     </row>
     <row r="192" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G192">
@@ -5850,7 +5850,7 @@
       <c r="J192" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K192" s="76" t="str">
+      <c r="K192" s="77" t="str">
         <f t="shared" ref="K192" si="91">DEC2HEX((G192-5)/2)</f>
         <v>5C</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="J193" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K193" s="77"/>
+      <c r="K193" s="78"/>
     </row>
     <row r="194" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G194">
@@ -5883,7 +5883,7 @@
       <c r="J194" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K194" s="76" t="str">
+      <c r="K194" s="77" t="str">
         <f t="shared" ref="K194" si="92">DEC2HEX((G194-5)/2)</f>
         <v>5D</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="J195" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K195" s="77"/>
+      <c r="K195" s="78"/>
     </row>
     <row r="196" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G196">
@@ -5916,7 +5916,7 @@
       <c r="J196" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K196" s="76" t="str">
+      <c r="K196" s="77" t="str">
         <f t="shared" ref="K196" si="93">DEC2HEX((G196-5)/2)</f>
         <v>5E</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="J197" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K197" s="77"/>
+      <c r="K197" s="78"/>
     </row>
     <row r="198" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G198">
@@ -5949,7 +5949,7 @@
       <c r="J198" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K198" s="76" t="str">
+      <c r="K198" s="77" t="str">
         <f t="shared" ref="K198" si="94">DEC2HEX((G198-5)/2)</f>
         <v>5F</v>
       </c>
@@ -5967,7 +5967,7 @@
       <c r="J199" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K199" s="77"/>
+      <c r="K199" s="78"/>
     </row>
     <row r="200" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G200">
@@ -5982,7 +5982,7 @@
       <c r="J200" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K200" s="76" t="str">
+      <c r="K200" s="77" t="str">
         <f t="shared" ref="K200" si="95">DEC2HEX((G200-5)/2)</f>
         <v>60</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="J201" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K201" s="77"/>
+      <c r="K201" s="78"/>
     </row>
     <row r="202" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G202">
@@ -6015,7 +6015,7 @@
       <c r="J202" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K202" s="76" t="str">
+      <c r="K202" s="77" t="str">
         <f t="shared" ref="K202" si="96">DEC2HEX((G202-5)/2)</f>
         <v>61</v>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="J203" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K203" s="77"/>
+      <c r="K203" s="78"/>
     </row>
     <row r="204" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G204">
@@ -6048,7 +6048,7 @@
       <c r="J204" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K204" s="76" t="str">
+      <c r="K204" s="77" t="str">
         <f t="shared" ref="K204" si="97">DEC2HEX((G204-5)/2)</f>
         <v>62</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="J205" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K205" s="77"/>
+      <c r="K205" s="78"/>
     </row>
     <row r="206" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G206">
@@ -6081,7 +6081,7 @@
       <c r="J206" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K206" s="76" t="str">
+      <c r="K206" s="77" t="str">
         <f t="shared" ref="K206" si="98">DEC2HEX((G206-5)/2)</f>
         <v>63</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="J207" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K207" s="77"/>
+      <c r="K207" s="78"/>
     </row>
     <row r="208" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G208">
@@ -6114,7 +6114,7 @@
       <c r="J208" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K208" s="76" t="str">
+      <c r="K208" s="77" t="str">
         <f t="shared" ref="K208" si="99">DEC2HEX((G208-5)/2)</f>
         <v>64</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="J209" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K209" s="77"/>
+      <c r="K209" s="78"/>
     </row>
     <row r="210" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G210">
@@ -6147,7 +6147,7 @@
       <c r="J210" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K210" s="76" t="str">
+      <c r="K210" s="77" t="str">
         <f t="shared" ref="K210" si="100">DEC2HEX((G210-5)/2)</f>
         <v>65</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="J211" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K211" s="77"/>
+      <c r="K211" s="78"/>
     </row>
     <row r="212" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G212">
@@ -6180,7 +6180,7 @@
       <c r="J212" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K212" s="76" t="str">
+      <c r="K212" s="77" t="str">
         <f t="shared" ref="K212" si="101">DEC2HEX((G212-5)/2)</f>
         <v>66</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="J213" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K213" s="77"/>
+      <c r="K213" s="78"/>
     </row>
     <row r="214" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G214">
@@ -6213,7 +6213,7 @@
       <c r="J214" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K214" s="76" t="str">
+      <c r="K214" s="77" t="str">
         <f t="shared" ref="K214" si="102">DEC2HEX((G214-5)/2)</f>
         <v>67</v>
       </c>
@@ -6231,7 +6231,7 @@
       <c r="J215" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K215" s="77"/>
+      <c r="K215" s="78"/>
     </row>
     <row r="216" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G216">
@@ -6246,7 +6246,7 @@
       <c r="J216" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K216" s="76" t="str">
+      <c r="K216" s="77" t="str">
         <f t="shared" ref="K216" si="103">DEC2HEX((G216-5)/2)</f>
         <v>68</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="J217" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K217" s="77"/>
+      <c r="K217" s="78"/>
     </row>
     <row r="218" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G218">
@@ -6279,7 +6279,7 @@
       <c r="J218" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K218" s="76" t="str">
+      <c r="K218" s="77" t="str">
         <f t="shared" ref="K218" si="104">DEC2HEX((G218-5)/2)</f>
         <v>69</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="J219" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K219" s="77"/>
+      <c r="K219" s="78"/>
     </row>
     <row r="220" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G220">
@@ -6312,7 +6312,7 @@
       <c r="J220" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K220" s="76" t="str">
+      <c r="K220" s="77" t="str">
         <f t="shared" ref="K220" si="105">DEC2HEX((G220-5)/2)</f>
         <v>6A</v>
       </c>
@@ -6330,7 +6330,7 @@
       <c r="J221" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K221" s="77"/>
+      <c r="K221" s="78"/>
     </row>
     <row r="222" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G222">
@@ -6345,7 +6345,7 @@
       <c r="J222" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K222" s="76" t="str">
+      <c r="K222" s="77" t="str">
         <f t="shared" ref="K222" si="106">DEC2HEX((G222-5)/2)</f>
         <v>6B</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="J223" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K223" s="77"/>
+      <c r="K223" s="78"/>
     </row>
     <row r="224" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G224">
@@ -6378,7 +6378,7 @@
       <c r="J224" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K224" s="76" t="str">
+      <c r="K224" s="77" t="str">
         <f t="shared" ref="K224" si="107">DEC2HEX((G224-5)/2)</f>
         <v>6C</v>
       </c>
@@ -6396,7 +6396,7 @@
       <c r="J225" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K225" s="77"/>
+      <c r="K225" s="78"/>
     </row>
     <row r="226" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G226">
@@ -6411,7 +6411,7 @@
       <c r="J226" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K226" s="76" t="str">
+      <c r="K226" s="77" t="str">
         <f t="shared" ref="K226" si="108">DEC2HEX((G226-5)/2)</f>
         <v>6D</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="J227" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K227" s="77"/>
+      <c r="K227" s="78"/>
     </row>
     <row r="228" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G228">
@@ -6444,7 +6444,7 @@
       <c r="J228" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K228" s="76" t="str">
+      <c r="K228" s="77" t="str">
         <f t="shared" ref="K228" si="109">DEC2HEX((G228-5)/2)</f>
         <v>6E</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="J229" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K229" s="77"/>
+      <c r="K229" s="78"/>
     </row>
     <row r="230" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G230">
@@ -6477,7 +6477,7 @@
       <c r="J230" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K230" s="76" t="str">
+      <c r="K230" s="77" t="str">
         <f t="shared" ref="K230" si="110">DEC2HEX((G230-5)/2)</f>
         <v>6F</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="J231" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K231" s="77"/>
+      <c r="K231" s="78"/>
     </row>
     <row r="232" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G232">
@@ -6510,7 +6510,7 @@
       <c r="J232" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K232" s="76" t="str">
+      <c r="K232" s="77" t="str">
         <f t="shared" ref="K232" si="111">DEC2HEX((G232-5)/2)</f>
         <v>70</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="J233" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K233" s="77"/>
+      <c r="K233" s="78"/>
     </row>
     <row r="234" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G234">
@@ -6543,7 +6543,7 @@
       <c r="J234" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K234" s="76" t="str">
+      <c r="K234" s="77" t="str">
         <f t="shared" ref="K234" si="112">DEC2HEX((G234-5)/2)</f>
         <v>71</v>
       </c>
@@ -6561,7 +6561,7 @@
       <c r="J235" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K235" s="77"/>
+      <c r="K235" s="78"/>
     </row>
     <row r="236" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G236">
@@ -6576,7 +6576,7 @@
       <c r="J236" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K236" s="76" t="str">
+      <c r="K236" s="77" t="str">
         <f t="shared" ref="K236" si="113">DEC2HEX((G236-5)/2)</f>
         <v>72</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="J237" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K237" s="77"/>
+      <c r="K237" s="78"/>
     </row>
     <row r="238" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G238">
@@ -6609,7 +6609,7 @@
       <c r="J238" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K238" s="76" t="str">
+      <c r="K238" s="77" t="str">
         <f t="shared" ref="K238" si="114">DEC2HEX((G238-5)/2)</f>
         <v>73</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="J239" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K239" s="77"/>
+      <c r="K239" s="78"/>
     </row>
     <row r="240" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G240">
@@ -6642,7 +6642,7 @@
       <c r="J240" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K240" s="76" t="str">
+      <c r="K240" s="77" t="str">
         <f t="shared" ref="K240" si="115">DEC2HEX((G240-5)/2)</f>
         <v>74</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="J241" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K241" s="77"/>
+      <c r="K241" s="78"/>
     </row>
     <row r="242" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G242">
@@ -6675,7 +6675,7 @@
       <c r="J242" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K242" s="76" t="str">
+      <c r="K242" s="77" t="str">
         <f t="shared" ref="K242" si="116">DEC2HEX((G242-5)/2)</f>
         <v>75</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="J243" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K243" s="77"/>
+      <c r="K243" s="78"/>
     </row>
     <row r="244" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G244">
@@ -6708,7 +6708,7 @@
       <c r="J244" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K244" s="76" t="str">
+      <c r="K244" s="77" t="str">
         <f t="shared" ref="K244" si="117">DEC2HEX((G244-5)/2)</f>
         <v>76</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="J245" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K245" s="77"/>
+      <c r="K245" s="78"/>
     </row>
     <row r="246" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G246">
@@ -6741,7 +6741,7 @@
       <c r="J246" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K246" s="76" t="str">
+      <c r="K246" s="77" t="str">
         <f t="shared" ref="K246" si="118">DEC2HEX((G246-5)/2)</f>
         <v>77</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="J247" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K247" s="77"/>
+      <c r="K247" s="78"/>
     </row>
     <row r="248" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G248">
@@ -6774,7 +6774,7 @@
       <c r="J248" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K248" s="76" t="str">
+      <c r="K248" s="77" t="str">
         <f t="shared" ref="K248" si="119">DEC2HEX((G248-5)/2)</f>
         <v>78</v>
       </c>
@@ -6792,7 +6792,7 @@
       <c r="J249" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K249" s="77"/>
+      <c r="K249" s="78"/>
     </row>
     <row r="250" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G250">
@@ -6807,7 +6807,7 @@
       <c r="J250" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K250" s="76" t="str">
+      <c r="K250" s="77" t="str">
         <f t="shared" ref="K250" si="120">DEC2HEX((G250-5)/2)</f>
         <v>79</v>
       </c>
@@ -6825,10 +6825,120 @@
       <c r="J251" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="K251" s="77"/>
+      <c r="K251" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="K146:K147"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="K176:K177"/>
+    <mergeCell ref="K178:K179"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="K182:K183"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="K168:K169"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="K172:K173"/>
+    <mergeCell ref="K174:K175"/>
+    <mergeCell ref="K196:K197"/>
+    <mergeCell ref="K198:K199"/>
+    <mergeCell ref="K200:K201"/>
+    <mergeCell ref="K202:K203"/>
+    <mergeCell ref="K204:K205"/>
+    <mergeCell ref="K186:K187"/>
+    <mergeCell ref="K188:K189"/>
+    <mergeCell ref="K190:K191"/>
+    <mergeCell ref="K192:K193"/>
+    <mergeCell ref="K194:K195"/>
+    <mergeCell ref="K216:K217"/>
+    <mergeCell ref="K218:K219"/>
+    <mergeCell ref="K220:K221"/>
+    <mergeCell ref="K222:K223"/>
+    <mergeCell ref="K224:K225"/>
+    <mergeCell ref="K206:K207"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="K210:K211"/>
+    <mergeCell ref="K212:K213"/>
+    <mergeCell ref="K214:K215"/>
     <mergeCell ref="K246:K247"/>
     <mergeCell ref="K248:K249"/>
     <mergeCell ref="K250:K251"/>
@@ -6842,116 +6952,6 @@
     <mergeCell ref="K230:K231"/>
     <mergeCell ref="K232:K233"/>
     <mergeCell ref="K234:K235"/>
-    <mergeCell ref="K216:K217"/>
-    <mergeCell ref="K218:K219"/>
-    <mergeCell ref="K220:K221"/>
-    <mergeCell ref="K222:K223"/>
-    <mergeCell ref="K224:K225"/>
-    <mergeCell ref="K206:K207"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="K210:K211"/>
-    <mergeCell ref="K212:K213"/>
-    <mergeCell ref="K214:K215"/>
-    <mergeCell ref="K196:K197"/>
-    <mergeCell ref="K198:K199"/>
-    <mergeCell ref="K200:K201"/>
-    <mergeCell ref="K202:K203"/>
-    <mergeCell ref="K204:K205"/>
-    <mergeCell ref="K186:K187"/>
-    <mergeCell ref="K188:K189"/>
-    <mergeCell ref="K190:K191"/>
-    <mergeCell ref="K192:K193"/>
-    <mergeCell ref="K194:K195"/>
-    <mergeCell ref="K176:K177"/>
-    <mergeCell ref="K178:K179"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="K182:K183"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="K168:K169"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="K172:K173"/>
-    <mergeCell ref="K174:K175"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="K160:K161"/>
-    <mergeCell ref="K162:K163"/>
-    <mergeCell ref="K164:K165"/>
-    <mergeCell ref="K146:K147"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7337,20 +7337,20 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="76" t="s">
         <v>430</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="V1" s="75" t="s">
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="V1" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7456,7 +7456,7 @@
       <c r="R4" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="80" t="s">
         <v>243</v>
       </c>
       <c r="V4">
@@ -7471,7 +7471,7 @@
       <c r="Y4" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="Z4" s="84" t="s">
+      <c r="Z4" s="80" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       <c r="R5" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="S5" s="84"/>
+      <c r="S5" s="80"/>
       <c r="V5">
         <v>1</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="Y5" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="Z5" s="84"/>
+      <c r="Z5" s="80"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -7564,7 +7564,7 @@
       <c r="R6" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="S6" s="84"/>
+      <c r="S6" s="80"/>
       <c r="V6">
         <v>2</v>
       </c>
@@ -7577,7 +7577,7 @@
       <c r="Y6" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="Z6" s="84"/>
+      <c r="Z6" s="80"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -7616,7 +7616,7 @@
       <c r="R7" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="S7" s="84"/>
+      <c r="S7" s="80"/>
       <c r="V7">
         <v>3</v>
       </c>
@@ -7629,7 +7629,7 @@
       <c r="Y7" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="Z7" s="84"/>
+      <c r="Z7" s="80"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -7656,10 +7656,10 @@
       <c r="J8" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="69" t="s">
         <v>16</v>
       </c>
       <c r="O8">
@@ -7674,7 +7674,7 @@
       <c r="R8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="S8" s="84"/>
+      <c r="S8" s="80"/>
       <c r="V8">
         <v>4</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="Y8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="Z8" s="84"/>
+      <c r="Z8" s="80"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -7715,8 +7715,8 @@
       <c r="J9" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="89"/>
-      <c r="L9" s="69"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="70"/>
       <c r="O9">
         <v>5</v>
       </c>
@@ -7729,7 +7729,7 @@
       <c r="R9" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="S9" s="84"/>
+      <c r="S9" s="80"/>
       <c r="V9">
         <v>5</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="Y9" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="Z9" s="84"/>
+      <c r="Z9" s="80"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -7770,8 +7770,8 @@
       <c r="J10" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="68" t="s">
+      <c r="K10" s="94"/>
+      <c r="L10" s="69" t="s">
         <v>15</v>
       </c>
       <c r="O10">
@@ -7786,7 +7786,7 @@
       <c r="R10" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="S10" s="84"/>
+      <c r="S10" s="80"/>
       <c r="V10">
         <v>6</v>
       </c>
@@ -7799,7 +7799,7 @@
       <c r="Y10" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="Z10" s="84"/>
+      <c r="Z10" s="80"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -7826,8 +7826,8 @@
       <c r="J11" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="69"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="70"/>
       <c r="O11">
         <v>7</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="R11" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="S11" s="84"/>
+      <c r="S11" s="80"/>
       <c r="V11">
         <v>7</v>
       </c>
@@ -7853,7 +7853,7 @@
       <c r="Y11" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="Z11" s="84"/>
+      <c r="Z11" s="80"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -7880,13 +7880,13 @@
       <c r="J12" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="91"/>
+      <c r="S12" s="96"/>
       <c r="V12">
         <v>8</v>
       </c>
@@ -7899,7 +7899,7 @@
       <c r="Y12" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Z12" s="84" t="s">
+      <c r="Z12" s="80" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7916,9 +7916,9 @@
       <c r="J13" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="69"/>
-      <c r="S13" s="91"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="70"/>
+      <c r="S13" s="96"/>
       <c r="V13">
         <v>9</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="Y13" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Z13" s="84"/>
+      <c r="Z13" s="80"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -7956,11 +7956,11 @@
       <c r="J14" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="68" t="s">
+      <c r="K14" s="89"/>
+      <c r="L14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="91"/>
+      <c r="S14" s="96"/>
       <c r="V14">
         <v>10</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="Y14" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Z14" s="84"/>
+      <c r="Z14" s="80"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -7997,9 +7997,9 @@
       <c r="J15" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="69"/>
-      <c r="S15" s="91"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="70"/>
+      <c r="S15" s="96"/>
       <c r="V15">
         <v>11</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="Y15" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Z15" s="84"/>
+      <c r="Z15" s="80"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G16">
@@ -8027,13 +8027,13 @@
       <c r="J16" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="93" t="s">
+      <c r="K16" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="91"/>
+      <c r="S16" s="96"/>
       <c r="V16">
         <v>12</v>
       </c>
@@ -8046,7 +8046,7 @@
       <c r="Y16" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Z16" s="84"/>
+      <c r="Z16" s="80"/>
     </row>
     <row r="17" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G17">
@@ -8061,9 +8061,9 @@
       <c r="J17" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="69"/>
-      <c r="S17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="70"/>
+      <c r="S17" s="96"/>
       <c r="V17">
         <v>13</v>
       </c>
@@ -8076,7 +8076,7 @@
       <c r="Y17" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Z17" s="84"/>
+      <c r="Z17" s="80"/>
     </row>
     <row r="18" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G18">
@@ -8091,11 +8091,11 @@
       <c r="J18" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="68" t="s">
+      <c r="K18" s="91"/>
+      <c r="L18" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="91"/>
+      <c r="S18" s="96"/>
       <c r="V18">
         <v>14</v>
       </c>
@@ -8108,7 +8108,7 @@
       <c r="Y18" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Z18" s="84"/>
+      <c r="Z18" s="80"/>
     </row>
     <row r="19" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G19">
@@ -8123,9 +8123,9 @@
       <c r="J19" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="69"/>
-      <c r="S19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="70"/>
+      <c r="S19" s="96"/>
       <c r="V19">
         <v>15</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="Y19" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="Z19" s="84"/>
+      <c r="Z19" s="80"/>
     </row>
     <row r="20" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G20">
@@ -8154,7 +8154,7 @@
         <v>231</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="69" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8172,7 +8172,7 @@
         <v>232</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="69"/>
+      <c r="L21" s="70"/>
       <c r="W21" s="1" t="s">
         <v>185</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>430</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="69" t="s">
         <v>42</v>
       </c>
       <c r="W22" t="s">
@@ -8223,7 +8223,7 @@
       <c r="K23" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="L23" s="69"/>
+      <c r="L23" s="70"/>
       <c r="W23" t="s">
         <v>16</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="K24" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="L24" s="69" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
         <v>162</v>
       </c>
       <c r="K25" s="42"/>
-      <c r="L25" s="69"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G26">
@@ -8284,7 +8284,7 @@
         <v>163</v>
       </c>
       <c r="K26" s="42"/>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="69" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8302,7 +8302,7 @@
         <v>164</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="69"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G28">
@@ -8320,7 +8320,7 @@
       <c r="K28" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="L28" s="68" t="s">
+      <c r="L28" s="69" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
         <v>166</v>
       </c>
       <c r="K29" s="42"/>
-      <c r="L29" s="69"/>
+      <c r="L29" s="70"/>
     </row>
     <row r="30" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G30">
@@ -8354,7 +8354,7 @@
         <v>168</v>
       </c>
       <c r="K30" s="42"/>
-      <c r="L30" s="68" t="s">
+      <c r="L30" s="69" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>167</v>
       </c>
       <c r="K31" s="43"/>
-      <c r="L31" s="69"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G32">
@@ -8390,7 +8390,7 @@
       <c r="K32" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="69" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8408,7 +8408,7 @@
         <v>162</v>
       </c>
       <c r="K33" s="42"/>
-      <c r="L33" s="69"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G34">
@@ -8424,7 +8424,7 @@
         <v>163</v>
       </c>
       <c r="K34" s="42"/>
-      <c r="L34" s="68" t="s">
+      <c r="L34" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
         <v>164</v>
       </c>
       <c r="K35" s="43"/>
-      <c r="L35" s="69"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.3">
       <c r="H37" s="1" t="s">
@@ -8589,6 +8589,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="Z4:Z11"/>
+    <mergeCell ref="Z12:Z19"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="S4:S11"/>
+    <mergeCell ref="S12:S19"/>
     <mergeCell ref="L32:L33"/>
     <mergeCell ref="L34:L35"/>
     <mergeCell ref="L30:L31"/>
@@ -8603,15 +8612,6 @@
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="Z4:Z11"/>
-    <mergeCell ref="Z12:Z19"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="S4:S11"/>
-    <mergeCell ref="S12:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8901,7 +8901,7 @@
         <v>277</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="69" t="s">
         <v>16</v>
       </c>
       <c r="O8">
@@ -8946,7 +8946,7 @@
       <c r="K9" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="70"/>
       <c r="O9">
         <v>5</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="K10" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="69" t="s">
         <v>15</v>
       </c>
       <c r="O10">
@@ -9037,7 +9037,7 @@
       <c r="K11" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="L11" s="69"/>
+      <c r="L11" s="70"/>
       <c r="O11">
         <v>7</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="K12" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="69" t="s">
         <v>26</v>
       </c>
       <c r="T12" s="50" t="s">
@@ -9111,7 +9111,7 @@
       <c r="K13" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L13" s="69"/>
+      <c r="L13" s="70"/>
       <c r="T13" s="50" t="s">
         <v>296</v>
       </c>
@@ -9145,7 +9145,7 @@
       <c r="K14" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L14" s="68" t="s">
+      <c r="L14" s="69" t="s">
         <v>25</v>
       </c>
       <c r="T14" s="50" t="s">
@@ -9171,7 +9171,7 @@
       <c r="K15" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="L15" s="69"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G16">
@@ -9187,7 +9187,7 @@
         <v>280</v>
       </c>
       <c r="K16" s="47"/>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
         <v>282</v>
       </c>
       <c r="K17" s="48"/>
-      <c r="L17" s="69"/>
+      <c r="L17" s="70"/>
       <c r="T17" s="51" t="s">
         <v>299</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>282</v>
       </c>
       <c r="K18" s="48"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="69" t="s">
         <v>80</v>
       </c>
       <c r="T18" s="50" t="s">
@@ -9248,7 +9248,7 @@
         <v>281</v>
       </c>
       <c r="K19" s="48"/>
-      <c r="L19" s="74"/>
+      <c r="L19" s="75"/>
       <c r="T19" s="50" t="s">
         <v>301</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>283</v>
       </c>
       <c r="K20" s="45"/>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="69" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9288,7 +9288,7 @@
         <v>285</v>
       </c>
       <c r="K21" s="44"/>
-      <c r="L21" s="69"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G22">
@@ -9304,7 +9304,7 @@
         <v>285</v>
       </c>
       <c r="K22" s="44"/>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="69" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9322,7 +9322,7 @@
         <v>284</v>
       </c>
       <c r="K23" s="17"/>
-      <c r="L23" s="69"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="25" spans="7:21" x14ac:dyDescent="0.3">
       <c r="H25" s="1" t="s">
@@ -9585,13 +9585,13 @@
       <c r="J8" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="L8" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="65" t="s">
+      <c r="L8" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="66" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9621,9 +9621,9 @@
       <c r="J9" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="66"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -9651,13 +9651,13 @@
       <c r="J10" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -9684,9 +9684,9 @@
       <c r="J11" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="66"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="67"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -9713,13 +9713,13 @@
       <c r="J12" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="66"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G13">
@@ -9734,9 +9734,9 @@
       <c r="J13" t="s">
         <v>213</v>
       </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="66"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -9761,11 +9761,11 @@
       <c r="J14" t="s">
         <v>213</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="74" t="s">
+      <c r="K14" s="89"/>
+      <c r="L14" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -9789,9 +9789,9 @@
       <c r="J15" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="67"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -9815,13 +9815,13 @@
       <c r="J16" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="76" t="s">
+      <c r="K16" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="66" t="s">
+      <c r="M16" s="67" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9838,9 +9838,9 @@
       <c r="J17" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="66"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="67"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G18">
@@ -9855,13 +9855,13 @@
       <c r="J18" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K18" s="76" t="s">
+      <c r="K18" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="66"/>
+      <c r="M18" s="67"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -9882,9 +9882,9 @@
       <c r="J19" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="77"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="66"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -9905,13 +9905,13 @@
       <c r="J20" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="66"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G21">
@@ -9926,9 +9926,9 @@
       <c r="J21" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="66"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="67"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G22">
@@ -9943,11 +9943,11 @@
       <c r="J22" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="92"/>
-      <c r="L22" s="74" t="s">
+      <c r="K22" s="89"/>
+      <c r="L22" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="66"/>
+      <c r="M22" s="67"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G23">
@@ -9962,9 +9962,9 @@
       <c r="J23" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="67"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="H25" s="1" t="s">
@@ -10042,12 +10042,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
     <mergeCell ref="M8:M15"/>
     <mergeCell ref="M16:M23"/>
     <mergeCell ref="L8:L9"/>
@@ -10058,6 +10052,12 @@
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10391,7 +10391,7 @@
       <c r="D13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="69" t="s">
         <v>16</v>
       </c>
       <c r="G13">
@@ -10406,7 +10406,7 @@
       <c r="J13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10423,7 +10423,7 @@
       <c r="D14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="69"/>
+      <c r="E14" s="70"/>
       <c r="G14">
         <v>11</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="J14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="69"/>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -10633,7 +10633,7 @@
       <c r="D22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="69" t="s">
         <v>16</v>
       </c>
       <c r="G22">
@@ -10648,7 +10648,7 @@
       <c r="J22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       <c r="D23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="70"/>
       <c r="G23">
         <v>20</v>
       </c>
@@ -10678,7 +10678,7 @@
       <c r="J23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="69"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -10693,7 +10693,7 @@
       <c r="D24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G24">
@@ -10708,7 +10708,7 @@
       <c r="J24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="68" t="s">
+      <c r="K24" s="69" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       <c r="D25" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="70"/>
       <c r="G25">
         <v>22</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="J25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="69"/>
+      <c r="K25" s="70"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -10935,7 +10935,7 @@
       <c r="D33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="69" t="s">
         <v>16</v>
       </c>
       <c r="G33">
@@ -10950,7 +10950,7 @@
       <c r="J33" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="68" t="s">
+      <c r="K33" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10967,7 +10967,7 @@
       <c r="D34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="70"/>
       <c r="G34">
         <v>31</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="J34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="69"/>
+      <c r="K34" s="70"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -11240,7 +11240,7 @@
       <c r="J8" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       <c r="J9" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -11296,7 +11296,7 @@
       <c r="J10" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="69" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
       <c r="J11" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -11352,7 +11352,7 @@
       <c r="J12" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11369,7 +11369,7 @@
       <c r="J13" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H17" s="1" t="s">
@@ -11604,7 +11604,7 @@
       <c r="J8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
       <c r="J9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -11660,7 +11660,7 @@
       <c r="J10" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="69" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11689,7 +11689,7 @@
       <c r="J11" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -11716,7 +11716,7 @@
       <c r="J12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11733,7 +11733,7 @@
       <c r="J13" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14">
@@ -11847,7 +11847,7 @@
       <c r="K20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="71" t="s">
         <v>328</v>
       </c>
     </row>
@@ -11865,7 +11865,7 @@
         <v>314</v>
       </c>
       <c r="K21" s="57"/>
-      <c r="L21" s="71"/>
+      <c r="L21" s="72"/>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G22">
@@ -11883,7 +11883,7 @@
       <c r="K22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="71"/>
+      <c r="L22" s="72"/>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G23">
@@ -11899,7 +11899,7 @@
         <v>316</v>
       </c>
       <c r="K23" s="57"/>
-      <c r="L23" s="72"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G24">
@@ -11917,7 +11917,7 @@
       <c r="K24" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="L24" s="71" t="s">
         <v>328</v>
       </c>
     </row>
@@ -11935,7 +11935,7 @@
         <v>318</v>
       </c>
       <c r="K25" s="57"/>
-      <c r="L25" s="71"/>
+      <c r="L25" s="72"/>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G26">
@@ -11953,7 +11953,7 @@
       <c r="K26" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="L26" s="71"/>
+      <c r="L26" s="72"/>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G27">
@@ -11969,7 +11969,7 @@
         <v>319</v>
       </c>
       <c r="K27" s="57"/>
-      <c r="L27" s="72"/>
+      <c r="L27" s="73"/>
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G28">
@@ -11987,7 +11987,7 @@
       <c r="K28" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="L28" s="70" t="s">
+      <c r="L28" s="71" t="s">
         <v>327</v>
       </c>
     </row>
@@ -12005,7 +12005,7 @@
         <v>321</v>
       </c>
       <c r="K29" s="57"/>
-      <c r="L29" s="71"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G30">
@@ -12023,7 +12023,7 @@
       <c r="K30" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="L30" s="71"/>
+      <c r="L30" s="72"/>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G31">
@@ -12039,7 +12039,7 @@
         <v>322</v>
       </c>
       <c r="K31" s="57"/>
-      <c r="L31" s="72"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="7:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G32">
@@ -12054,10 +12054,10 @@
       <c r="J32" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="70" t="s">
+      <c r="L32" s="71" t="s">
         <v>327</v>
       </c>
     </row>
@@ -12074,8 +12074,8 @@
       <c r="J33" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="71"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="72"/>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G34">
@@ -12090,10 +12090,10 @@
       <c r="J34" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="K34" s="68" t="s">
+      <c r="K34" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="71"/>
+      <c r="L34" s="72"/>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G35">
@@ -12108,8 +12108,8 @@
       <c r="J35" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="72"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="73"/>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.3">
       <c r="H37" s="1" t="s">
@@ -12209,8 +12209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12236,12 +12236,12 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="74" t="s">
         <v>424</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -12491,7 +12491,7 @@
       <c r="J8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="69" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="50">
@@ -12506,7 +12506,7 @@
       <c r="P8" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="Q8" s="96" t="s">
+      <c r="Q8" s="65" t="s">
         <v>443</v>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
       <c r="J9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="70"/>
       <c r="M9" s="50">
         <v>6</v>
       </c>
@@ -12574,7 +12574,7 @@
       <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="69" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="50">
@@ -12615,7 +12615,7 @@
       <c r="J11" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -12642,7 +12642,7 @@
       <c r="J12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12659,13 +12659,13 @@
       <c r="J13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="69"/>
-      <c r="M13" s="73" t="s">
+      <c r="K13" s="70"/>
+      <c r="M13" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
       <c r="R13" s="50" t="s">
         <v>427</v>
       </c>
@@ -12694,7 +12694,7 @@
       <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="69" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="50" t="s">
@@ -12727,7 +12727,7 @@
       <c r="J15" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="69"/>
+      <c r="K15" s="70"/>
       <c r="M15" s="50">
         <v>0</v>
       </c>
@@ -12760,7 +12760,7 @@
       <c r="J16" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="69" t="s">
         <v>43</v>
       </c>
       <c r="M16" s="50">
@@ -12795,7 +12795,7 @@
       <c r="J17" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="70"/>
       <c r="M17" s="50">
         <v>2</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="75" t="s">
         <v>80</v>
       </c>
       <c r="M18" s="50">
@@ -12857,7 +12857,7 @@
       <c r="J19" t="s">
         <v>413</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="70"/>
       <c r="M19" s="50">
         <v>4</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="J8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       <c r="J9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -13280,7 +13280,7 @@
       <c r="J10" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="69" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13309,7 +13309,7 @@
       <c r="J11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -13574,7 +13574,7 @@
       <c r="J8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -13603,7 +13603,7 @@
       <c r="J9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -13630,7 +13630,7 @@
       <c r="J10" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="69" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       <c r="J11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -13686,7 +13686,7 @@
       <c r="J12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13703,7 +13703,7 @@
       <c r="J13" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14">
@@ -13718,7 +13718,7 @@
       <c r="J14" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="69" t="s">
         <v>25</v>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       <c r="J15" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16">
@@ -13750,7 +13750,7 @@
       <c r="J16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       <c r="J17" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="70"/>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G18">
@@ -13782,7 +13782,7 @@
       <c r="J18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="68" t="s">
+      <c r="K18" s="69" t="s">
         <v>80</v>
       </c>
     </row>
@@ -13797,7 +13797,7 @@
       <c r="J19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13835,11 +13835,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -14038,7 +14038,7 @@
         <v>305</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       <c r="K9" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -14100,7 +14100,7 @@
       <c r="K10" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="69" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14132,7 +14132,7 @@
       <c r="K11" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="L11" s="69"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -14162,7 +14162,7 @@
       <c r="K12" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
       <c r="K13" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L13" s="69"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -14203,7 +14203,7 @@
       <c r="K14" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L14" s="68" t="s">
+      <c r="L14" s="69" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14226,7 +14226,7 @@
       <c r="K15" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="L15" s="69"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -14245,7 +14245,7 @@
         <v>410</v>
       </c>
       <c r="K16" s="45"/>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
         <v>411</v>
       </c>
       <c r="K17" s="44"/>
-      <c r="L17" s="69"/>
+      <c r="L17" s="70"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -14285,7 +14285,7 @@
         <v>411</v>
       </c>
       <c r="K18" s="44"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="69" t="s">
         <v>80</v>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
         <v>412</v>
       </c>
       <c r="K19" s="17"/>
-      <c r="L19" s="69"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G20">
@@ -14319,7 +14319,7 @@
         <v>414</v>
       </c>
       <c r="K20" s="18"/>
-      <c r="L20" s="76" t="s">
+      <c r="L20" s="77" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14337,7 +14337,7 @@
         <v>415</v>
       </c>
       <c r="K21" s="20"/>
-      <c r="L21" s="77"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G22">
@@ -14353,7 +14353,7 @@
         <v>415</v>
       </c>
       <c r="K22" s="20"/>
-      <c r="L22" s="76" t="s">
+      <c r="L22" s="77" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
         <v>416</v>
       </c>
       <c r="K23" s="21"/>
-      <c r="L23" s="77"/>
+      <c r="L23" s="78"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H25" s="1" t="s">
@@ -14469,13 +14469,13 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -14502,12 +14502,12 @@
       <c r="Q2" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="73" t="s">
+      <c r="AF2" s="74" t="s">
         <v>360</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -14596,7 +14596,7 @@
       <c r="Q4" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="80" t="s">
         <v>378</v>
       </c>
       <c r="T4" s="50" t="s">
@@ -14619,7 +14619,7 @@
       <c r="AD4" s="50">
         <v>0</v>
       </c>
-      <c r="AE4" s="78" t="s">
+      <c r="AE4" s="84" t="s">
         <v>16</v>
       </c>
       <c r="AF4" s="60" t="s">
@@ -14672,7 +14672,7 @@
       <c r="Q5" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="R5" s="84"/>
+      <c r="R5" s="80"/>
       <c r="T5" s="50">
         <v>0</v>
       </c>
@@ -14697,7 +14697,7 @@
       <c r="AD5" s="50">
         <v>1</v>
       </c>
-      <c r="AE5" s="79"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="60" t="s">
         <v>398</v>
       </c>
@@ -14748,7 +14748,7 @@
       <c r="Q6" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="R6" s="84"/>
+      <c r="R6" s="80"/>
       <c r="T6" s="50">
         <v>1</v>
       </c>
@@ -14773,7 +14773,7 @@
       <c r="AD6" s="50">
         <v>2</v>
       </c>
-      <c r="AE6" s="78" t="s">
+      <c r="AE6" s="84" t="s">
         <v>15</v>
       </c>
       <c r="AF6" s="60" t="s">
@@ -14826,7 +14826,7 @@
       <c r="Q7" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="R7" s="84"/>
+      <c r="R7" s="80"/>
       <c r="T7" s="50">
         <v>2</v>
       </c>
@@ -14839,7 +14839,7 @@
       <c r="AD7" s="50">
         <v>3</v>
       </c>
-      <c r="AE7" s="79"/>
+      <c r="AE7" s="85"/>
       <c r="AF7" s="60" t="s">
         <v>398</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="J8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="69" t="s">
         <v>16</v>
       </c>
       <c r="N8">
@@ -14893,7 +14893,7 @@
       <c r="Q8" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="R8" s="84"/>
+      <c r="R8" s="80"/>
       <c r="T8" s="50">
         <v>3</v>
       </c>
@@ -14906,7 +14906,7 @@
       <c r="AD8" s="50">
         <v>4</v>
       </c>
-      <c r="AE8" s="78" t="s">
+      <c r="AE8" s="84" t="s">
         <v>26</v>
       </c>
       <c r="AF8" s="60" t="s">
@@ -14947,7 +14947,7 @@
       <c r="J9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="70"/>
       <c r="N9">
         <v>5</v>
       </c>
@@ -14960,11 +14960,11 @@
       <c r="Q9" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="R9" s="84"/>
+      <c r="R9" s="80"/>
       <c r="AD9" s="50">
         <v>5</v>
       </c>
-      <c r="AE9" s="79"/>
+      <c r="AE9" s="85"/>
       <c r="AF9" s="60" t="s">
         <v>398</v>
       </c>
@@ -15003,7 +15003,7 @@
       <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="69" t="s">
         <v>15</v>
       </c>
       <c r="N10">
@@ -15018,11 +15018,11 @@
       <c r="Q10" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="R10" s="84"/>
+      <c r="R10" s="80"/>
       <c r="AD10" s="50">
         <v>6</v>
       </c>
-      <c r="AE10" s="78" t="s">
+      <c r="AE10" s="84" t="s">
         <v>25</v>
       </c>
       <c r="AF10" s="60" t="s">
@@ -15063,7 +15063,7 @@
       <c r="J11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="70"/>
       <c r="N11">
         <v>7</v>
       </c>
@@ -15076,11 +15076,11 @@
       <c r="Q11" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="R11" s="84"/>
+      <c r="R11" s="80"/>
       <c r="AD11" s="50">
         <v>7</v>
       </c>
-      <c r="AE11" s="79"/>
+      <c r="AE11" s="85"/>
       <c r="AF11" s="50" t="s">
         <v>17</v>
       </c>
@@ -15117,7 +15117,7 @@
       <c r="J12" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="69" t="s">
         <v>26</v>
       </c>
       <c r="N12">
@@ -15132,7 +15132,7 @@
       <c r="Q12" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="80" t="s">
         <v>377</v>
       </c>
     </row>
@@ -15147,7 +15147,7 @@
       <c r="J13" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="70"/>
       <c r="N13">
         <v>9</v>
       </c>
@@ -15160,7 +15160,7 @@
       <c r="Q13" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="R13" s="84"/>
+      <c r="R13" s="80"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G14">
@@ -15173,7 +15173,7 @@
       <c r="J14" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="69" t="s">
         <v>25</v>
       </c>
       <c r="N14">
@@ -15188,7 +15188,7 @@
       <c r="Q14" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="R14" s="84"/>
+      <c r="R14" s="80"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G15">
@@ -15201,7 +15201,7 @@
       <c r="J15" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="K15" s="69"/>
+      <c r="K15" s="70"/>
       <c r="N15">
         <v>11</v>
       </c>
@@ -15214,7 +15214,7 @@
       <c r="Q15" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="R15" s="84"/>
+      <c r="R15" s="80"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G16">
@@ -15227,7 +15227,7 @@
       <c r="J16" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="76" t="s">
+      <c r="K16" s="77" t="s">
         <v>43</v>
       </c>
       <c r="N16">
@@ -15242,7 +15242,7 @@
       <c r="Q16" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="R16" s="84"/>
+      <c r="R16" s="80"/>
     </row>
     <row r="17" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G17">
@@ -15255,7 +15255,7 @@
       <c r="J17" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="77"/>
+      <c r="K17" s="78"/>
       <c r="N17">
         <v>13</v>
       </c>
@@ -15268,7 +15268,7 @@
       <c r="Q17" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="R17" s="84"/>
+      <c r="R17" s="80"/>
     </row>
     <row r="18" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G18">
@@ -15281,7 +15281,7 @@
       <c r="J18" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="76" t="s">
+      <c r="K18" s="77" t="s">
         <v>80</v>
       </c>
       <c r="N18">
@@ -15296,7 +15296,7 @@
       <c r="Q18" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="R18" s="84"/>
+      <c r="R18" s="80"/>
     </row>
     <row r="19" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G19">
@@ -15309,7 +15309,7 @@
       <c r="J19" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="78"/>
       <c r="N19">
         <v>15</v>
       </c>
@@ -15322,7 +15322,7 @@
       <c r="Q19" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="R19" s="84"/>
+      <c r="R19" s="80"/>
     </row>
     <row r="20" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G20">
@@ -15335,7 +15335,7 @@
       <c r="J20" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="77" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15350,7 +15350,7 @@
       <c r="J21" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G22">
@@ -15363,7 +15363,7 @@
       <c r="J22" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="K22" s="76" t="s">
+      <c r="K22" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Q22" t="s">
@@ -15381,7 +15381,7 @@
       <c r="J23" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="K23" s="77"/>
+      <c r="K23" s="78"/>
       <c r="N23" t="s">
         <v>233</v>
       </c>
@@ -15400,7 +15400,7 @@
       <c r="J24" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="K24" s="76" t="s">
+      <c r="K24" s="77" t="s">
         <v>59</v>
       </c>
       <c r="N24">
@@ -15415,7 +15415,7 @@
       <c r="Q24" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="84" t="s">
+      <c r="R24" s="80" t="s">
         <v>243</v>
       </c>
       <c r="T24" t="s">
@@ -15433,7 +15433,7 @@
       <c r="J25" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="K25" s="77"/>
+      <c r="K25" s="78"/>
       <c r="N25">
         <v>1</v>
       </c>
@@ -15446,7 +15446,7 @@
       <c r="Q25" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="R25" s="84"/>
+      <c r="R25" s="80"/>
       <c r="T25" s="50">
         <v>0</v>
       </c>
@@ -15466,7 +15466,7 @@
       <c r="J26" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="K26" s="76" t="s">
+      <c r="K26" s="77" t="s">
         <v>187</v>
       </c>
       <c r="N26">
@@ -15481,7 +15481,7 @@
       <c r="Q26" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="R26" s="84"/>
+      <c r="R26" s="80"/>
       <c r="T26" s="50">
         <v>1</v>
       </c>
@@ -15501,7 +15501,7 @@
       <c r="J27" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="K27" s="77"/>
+      <c r="K27" s="78"/>
       <c r="N27">
         <v>3</v>
       </c>
@@ -15514,7 +15514,7 @@
       <c r="Q27" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="R27" s="83"/>
+      <c r="R27" s="79"/>
       <c r="T27" s="50">
         <v>2</v>
       </c>
@@ -15536,7 +15536,7 @@
       <c r="J28" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="K28" s="76" t="s">
+      <c r="K28" s="77" t="s">
         <v>202</v>
       </c>
       <c r="N28">
@@ -15551,7 +15551,7 @@
       <c r="Q28" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="R28" s="83"/>
+      <c r="R28" s="79"/>
       <c r="T28" s="50">
         <v>3</v>
       </c>
@@ -15573,7 +15573,7 @@
       <c r="J29" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="K29" s="77"/>
+      <c r="K29" s="78"/>
       <c r="N29">
         <v>5</v>
       </c>
@@ -15586,7 +15586,7 @@
       <c r="Q29" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="R29" s="83"/>
+      <c r="R29" s="79"/>
       <c r="T29" s="50">
         <v>3</v>
       </c>
@@ -15608,7 +15608,7 @@
       <c r="J30" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="K30" s="76" t="s">
+      <c r="K30" s="77" t="s">
         <v>203</v>
       </c>
       <c r="N30">
@@ -15623,7 +15623,7 @@
       <c r="Q30" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="R30" s="83"/>
+      <c r="R30" s="79"/>
     </row>
     <row r="31" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G31">
@@ -15636,7 +15636,7 @@
       <c r="J31" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="K31" s="77"/>
+      <c r="K31" s="78"/>
       <c r="N31">
         <v>7</v>
       </c>
@@ -15649,7 +15649,7 @@
       <c r="Q31" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="R31" s="83"/>
+      <c r="R31" s="79"/>
     </row>
     <row r="32" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G32">
@@ -15662,7 +15662,7 @@
       <c r="J32" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="K32" s="76" t="s">
+      <c r="K32" s="77" t="s">
         <v>50</v>
       </c>
       <c r="N32">
@@ -15677,7 +15677,7 @@
       <c r="Q32" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="R32" s="83" t="s">
+      <c r="R32" s="79" t="s">
         <v>244</v>
       </c>
     </row>
@@ -15692,7 +15692,7 @@
       <c r="J33" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="K33" s="77"/>
+      <c r="K33" s="78"/>
       <c r="N33">
         <v>9</v>
       </c>
@@ -15705,7 +15705,7 @@
       <c r="Q33" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="R33" s="83"/>
+      <c r="R33" s="79"/>
     </row>
     <row r="34" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G34">
@@ -15718,7 +15718,7 @@
       <c r="J34" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="K34" s="76" t="s">
+      <c r="K34" s="77" t="s">
         <v>58</v>
       </c>
       <c r="N34">
@@ -15733,7 +15733,7 @@
       <c r="Q34" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="R34" s="83"/>
+      <c r="R34" s="79"/>
     </row>
     <row r="35" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G35">
@@ -15746,7 +15746,7 @@
       <c r="J35" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="K35" s="77"/>
+      <c r="K35" s="78"/>
       <c r="N35">
         <v>11</v>
       </c>
@@ -15759,7 +15759,7 @@
       <c r="Q35" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="R35" s="83"/>
+      <c r="R35" s="79"/>
     </row>
     <row r="36" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G36">
@@ -15772,7 +15772,7 @@
       <c r="J36" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="K36" s="76" t="s">
+      <c r="K36" s="77" t="s">
         <v>57</v>
       </c>
       <c r="N36">
@@ -15787,7 +15787,7 @@
       <c r="Q36" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="R36" s="83"/>
+      <c r="R36" s="79"/>
     </row>
     <row r="37" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G37">
@@ -15800,7 +15800,7 @@
       <c r="J37" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="K37" s="77"/>
+      <c r="K37" s="78"/>
       <c r="N37">
         <v>13</v>
       </c>
@@ -15813,7 +15813,7 @@
       <c r="Q37" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="R37" s="83"/>
+      <c r="R37" s="79"/>
     </row>
     <row r="38" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G38">
@@ -15826,7 +15826,7 @@
       <c r="J38" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="K38" s="76" t="s">
+      <c r="K38" s="77" t="s">
         <v>91</v>
       </c>
       <c r="N38">
@@ -15841,7 +15841,7 @@
       <c r="Q38" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="R38" s="83"/>
+      <c r="R38" s="79"/>
     </row>
     <row r="39" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G39">
@@ -15854,7 +15854,7 @@
       <c r="J39" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="K39" s="77"/>
+      <c r="K39" s="78"/>
       <c r="N39">
         <v>15</v>
       </c>
@@ -15867,7 +15867,7 @@
       <c r="Q39" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="R39" s="83"/>
+      <c r="R39" s="79"/>
     </row>
     <row r="40" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G40">
@@ -15880,7 +15880,7 @@
       <c r="J40" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="K40" s="76" t="s">
+      <c r="K40" s="77" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15895,14 +15895,14 @@
       <c r="J41" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K41" s="77"/>
-      <c r="P41" s="80" t="s">
+      <c r="K41" s="78"/>
+      <c r="P41" s="81" t="s">
         <v>389</v>
       </c>
       <c r="Q41" t="s">
         <v>336</v>
       </c>
-      <c r="R41" s="81" t="s">
+      <c r="R41" s="82" t="s">
         <v>390</v>
       </c>
     </row>
@@ -15917,14 +15917,14 @@
       <c r="J42" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K42" s="76" t="s">
+      <c r="K42" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="P42" s="80"/>
+      <c r="P42" s="81"/>
       <c r="Q42" t="s">
         <v>340</v>
       </c>
-      <c r="R42" s="81"/>
+      <c r="R42" s="82"/>
     </row>
     <row r="43" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G43">
@@ -15937,12 +15937,12 @@
       <c r="J43" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K43" s="77"/>
-      <c r="P43" s="80"/>
+      <c r="K43" s="78"/>
+      <c r="P43" s="81"/>
       <c r="Q43" t="s">
         <v>343</v>
       </c>
-      <c r="R43" s="81"/>
+      <c r="R43" s="82"/>
     </row>
     <row r="44" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G44">
@@ -15955,14 +15955,14 @@
       <c r="J44" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K44" s="76" t="s">
+      <c r="K44" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="P44" s="80"/>
+      <c r="P44" s="81"/>
       <c r="Q44" t="s">
         <v>350</v>
       </c>
-      <c r="R44" s="81"/>
+      <c r="R44" s="82"/>
     </row>
     <row r="45" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G45">
@@ -15975,7 +15975,7 @@
       <c r="J45" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K45" s="77"/>
+      <c r="K45" s="78"/>
     </row>
     <row r="46" spans="7:23" x14ac:dyDescent="0.3">
       <c r="G46">
@@ -15988,7 +15988,7 @@
       <c r="J46" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K46" s="76" t="s">
+      <c r="K46" s="77" t="s">
         <v>269</v>
       </c>
     </row>
@@ -16003,14 +16003,14 @@
       <c r="J47" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="K47" s="77"/>
-      <c r="P47" s="82" t="s">
+      <c r="K47" s="78"/>
+      <c r="P47" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="Q47" s="82" t="s">
+      <c r="Q47" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="R47" s="82" t="s">
+      <c r="R47" s="83" t="s">
         <v>391</v>
       </c>
       <c r="S47" t="s">
@@ -16031,12 +16031,12 @@
       <c r="J48" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="K48" s="76" t="s">
+      <c r="K48" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="83"/>
+      <c r="R48" s="83"/>
       <c r="S48" t="s">
         <v>393</v>
       </c>
@@ -16058,7 +16058,7 @@
       <c r="J49" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="K49" s="77"/>
+      <c r="K49" s="78"/>
     </row>
     <row r="50" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G50">
@@ -16071,7 +16071,7 @@
       <c r="J50" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="K50" s="76" t="s">
+      <c r="K50" s="77" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16086,7 +16086,7 @@
       <c r="J51" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="K51" s="77"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G52">
@@ -16099,7 +16099,7 @@
       <c r="J52" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="K52" s="76" t="s">
+      <c r="K52" s="77" t="s">
         <v>345</v>
       </c>
     </row>
@@ -16114,7 +16114,7 @@
       <c r="J53" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="K53" s="77"/>
+      <c r="K53" s="78"/>
     </row>
     <row r="54" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G54">
@@ -16127,7 +16127,7 @@
       <c r="J54" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="K54" s="76" t="s">
+      <c r="K54" s="77" t="s">
         <v>93</v>
       </c>
     </row>
@@ -16142,15 +16142,35 @@
       <c r="J55" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="K55" s="77"/>
+      <c r="K55" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="R32:R39"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="R4:R11"/>
-    <mergeCell ref="R12:R19"/>
-    <mergeCell ref="R24:R31"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="R41:R44"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
     <mergeCell ref="K48:K49"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="K52:K53"/>
@@ -16160,31 +16180,11 @@
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="R41:R44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="R32:R39"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="R4:R11"/>
+    <mergeCell ref="R12:R19"/>
+    <mergeCell ref="R24:R31"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
